--- a/ML.xlsx
+++ b/ML.xlsx
@@ -5,20 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erooz\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erooz\OneDrive\Desktop\Preprocessing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833A1E61-72B0-409E-AB85-B42541BE25E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB75DA58-A999-4008-B72C-E59697C27B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1746,6 +1756,75 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{085DAE47-561F-42D6-8AC3-2F3A943C6256}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Simple Linear</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BBD4F416-B3A1-49F4-9FF0-55ABA8CA4CBD}" type="parTrans" cxnId="{12D6B7B9-490E-4B3B-B602-CCC8C65CEEBA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EB0DCC7A-E70B-4763-B85A-74F8E5B92FDD}" type="sibTrans" cxnId="{12D6B7B9-490E-4B3B-B602-CCC8C65CEEBA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BC40D038-378D-4E29-A428-66091D381985}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{53835426-5FD4-4806-99CD-8FDCD0003967}" type="parTrans" cxnId="{070E1C1D-C2BB-4B76-8524-2A6128BB236C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4074A65A-98B8-4126-B479-5BFCDBF66134}" type="sibTrans" cxnId="{070E1C1D-C2BB-4B76-8524-2A6128BB236C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{49DFB2DB-5991-4EB8-AF68-D6A71FE984EB}" type="pres">
       <dgm:prSet presAssocID="{056E0BFD-D5F5-44ED-AF25-7899CA4F7AF8}" presName="hierChild1" presStyleCnt="0">
         <dgm:presLayoutVars>
@@ -1780,7 +1859,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DBA9F244-DFF8-4499-A2B9-CA01A5797987}" type="pres">
-      <dgm:prSet presAssocID="{308E1B8A-8B79-48C3-A4B8-A7C1A1D90698}" presName="rootPict1" presStyleLbl="alignImgPlace1" presStyleIdx="0" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{308E1B8A-8B79-48C3-A4B8-A7C1A1D90698}" presName="rootPict1" presStyleLbl="alignImgPlace1" presStyleIdx="0" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{92E30D73-306A-48DE-AB63-EC56BBB55922}" type="pres">
@@ -1816,7 +1895,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DF26ABD5-629C-4D6F-9C28-AB45EC9C2EBD}" type="pres">
-      <dgm:prSet presAssocID="{EBE8BB09-F5F2-442C-9DC1-FAAD03537881}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="1" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{EBE8BB09-F5F2-442C-9DC1-FAAD03537881}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="1" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4ADE8521-8A56-439B-AA99-3161F818F65A}" type="pres">
@@ -1852,7 +1931,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2EBE1D0B-18F2-4AD4-86B3-FDBECA511AF8}" type="pres">
-      <dgm:prSet presAssocID="{A3CEB53B-A4FC-4898-96D7-74831AD9E5DA}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="2" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{A3CEB53B-A4FC-4898-96D7-74831AD9E5DA}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="2" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{43446036-742E-4198-BD87-099C598C94BB}" type="pres">
@@ -1864,7 +1943,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3A893064-D298-4E41-9D92-BADEAABC2931}" type="pres">
-      <dgm:prSet presAssocID="{6DD53BFC-395D-4497-B63E-E96BD5065D55}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{6DD53BFC-395D-4497-B63E-E96BD5065D55}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="12"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4C5BE95D-4DCF-4AEA-89AC-C61E5D9F5B48}" type="pres">
@@ -1880,7 +1959,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BAE85721-4571-45D9-BB98-4AFEB3BCBB84}" type="pres">
-      <dgm:prSet presAssocID="{EC77294E-89F2-4DE9-ABC2-904F7CB46CCA}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="9">
+      <dgm:prSet presAssocID="{EC77294E-89F2-4DE9-ABC2-904F7CB46CCA}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1888,11 +1967,11 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ACCAA51B-11B8-42E1-BCC3-6B550E39D607}" type="pres">
-      <dgm:prSet presAssocID="{EC77294E-89F2-4DE9-ABC2-904F7CB46CCA}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="3" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{EC77294E-89F2-4DE9-ABC2-904F7CB46CCA}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="3" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{08D80C2B-13E8-4004-ADBF-71E2DF6A06C3}" type="pres">
-      <dgm:prSet presAssocID="{EC77294E-89F2-4DE9-ABC2-904F7CB46CCA}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{EC77294E-89F2-4DE9-ABC2-904F7CB46CCA}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="11"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0825D3AB-75D1-40BD-BB18-14B7C2640C9C}" type="pres">
@@ -1908,7 +1987,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5F6C6221-DF1D-4438-A0C2-0B0955E3FBBB}" type="pres">
-      <dgm:prSet presAssocID="{8A3C7B24-4536-46D0-83CB-414861650D59}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{8A3C7B24-4536-46D0-83CB-414861650D59}" presName="Name111" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="12"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E2E4044D-B3D0-43A1-9FE8-0E8A8267E91B}" type="pres">
@@ -1932,7 +2011,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7A2DAAAD-45D8-40B9-BFCB-5F72E153B614}" type="pres">
-      <dgm:prSet presAssocID="{7ABCB47E-A2AB-4EBD-B536-64C32B6D86D0}" presName="rootPict3" presStyleLbl="alignImgPlace1" presStyleIdx="4" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{7ABCB47E-A2AB-4EBD-B536-64C32B6D86D0}" presName="rootPict3" presStyleLbl="alignImgPlace1" presStyleIdx="4" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{381EB4B7-2FF0-4662-9CA2-F3208D833A80}" type="pres">
@@ -1941,6 +2020,86 @@
     </dgm:pt>
     <dgm:pt modelId="{96E27BB6-36A4-43B9-9C99-2D8786795783}" type="pres">
       <dgm:prSet presAssocID="{7ABCB47E-A2AB-4EBD-B536-64C32B6D86D0}" presName="hierChild6" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{106847BB-0E2C-4936-9B47-42EB2964F45A}" type="pres">
+      <dgm:prSet presAssocID="{BBD4F416-B3A1-49F4-9FF0-55ABA8CA4CBD}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="12"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2F330810-5CE6-4C47-BF92-96A8C71C23F2}" type="pres">
+      <dgm:prSet presAssocID="{085DAE47-561F-42D6-8AC3-2F3A943C6256}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{43134C7E-715F-4182-935D-7A359D8BDDE5}" type="pres">
+      <dgm:prSet presAssocID="{085DAE47-561F-42D6-8AC3-2F3A943C6256}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D5C4C263-4053-4020-8DD7-35C5BAAC362F}" type="pres">
+      <dgm:prSet presAssocID="{085DAE47-561F-42D6-8AC3-2F3A943C6256}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0C3D5E5C-8CF3-411C-8844-FE79046EA764}" type="pres">
+      <dgm:prSet presAssocID="{085DAE47-561F-42D6-8AC3-2F3A943C6256}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="5" presStyleCnt="26"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{77ED8531-9661-4CD2-87D4-6796FACB5EF7}" type="pres">
+      <dgm:prSet presAssocID="{085DAE47-561F-42D6-8AC3-2F3A943C6256}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F344100D-5919-4872-A3CA-281A28DBBAE6}" type="pres">
+      <dgm:prSet presAssocID="{085DAE47-561F-42D6-8AC3-2F3A943C6256}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{15D8303F-D8D6-449C-B7AF-DF4D1FB940FA}" type="pres">
+      <dgm:prSet presAssocID="{085DAE47-561F-42D6-8AC3-2F3A943C6256}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DF4CB239-437E-4B3B-9621-1E98BF921966}" type="pres">
+      <dgm:prSet presAssocID="{53835426-5FD4-4806-99CD-8FDCD0003967}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="12"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B1432384-D656-4454-A693-AC85CED86726}" type="pres">
+      <dgm:prSet presAssocID="{BC40D038-378D-4E29-A428-66091D381985}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D402C2C6-3EE4-4A89-9A01-B3C9C4F3E504}" type="pres">
+      <dgm:prSet presAssocID="{BC40D038-378D-4E29-A428-66091D381985}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5852FB33-16EB-4774-B42D-9D474C15AD5C}" type="pres">
+      <dgm:prSet presAssocID="{BC40D038-378D-4E29-A428-66091D381985}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7E5AEEF2-BE11-45D2-923F-C142CEE3E250}" type="pres">
+      <dgm:prSet presAssocID="{BC40D038-378D-4E29-A428-66091D381985}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="6" presStyleCnt="26"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BC220E79-E6D4-4F30-AC4E-6B1A0BA5E2DD}" type="pres">
+      <dgm:prSet presAssocID="{BC40D038-378D-4E29-A428-66091D381985}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{357B4E89-2E7F-4DEF-95DE-C1CB0273BDDA}" type="pres">
+      <dgm:prSet presAssocID="{BC40D038-378D-4E29-A428-66091D381985}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FF5017C2-3FCE-4F10-A821-77F9CAF318CD}" type="pres">
+      <dgm:prSet presAssocID="{BC40D038-378D-4E29-A428-66091D381985}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B2122AA0-7D2F-464A-BDF0-BA978A06B5A0}" type="pres">
@@ -1972,7 +2131,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B5E0C2FF-CB36-4E94-B6A1-D77C2F926C50}" type="pres">
-      <dgm:prSet presAssocID="{FFA5B7DF-046D-43D3-A24C-16FC11125133}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="5" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{FFA5B7DF-046D-43D3-A24C-16FC11125133}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="7" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B2BED9D0-04B8-4806-BC26-FAD9173E78B3}" type="pres">
@@ -1984,7 +2143,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9C6A7462-1118-49E4-B6E0-83CCD1D2518D}" type="pres">
-      <dgm:prSet presAssocID="{D168FB82-DCFA-497C-A74F-D8294E2E4A03}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{D168FB82-DCFA-497C-A74F-D8294E2E4A03}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="12"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2069035C-1FCC-44E0-809B-CE7C5E3FFEA2}" type="pres">
@@ -2000,7 +2159,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AAACD41E-428D-415B-A541-0FB8998215AE}" type="pres">
-      <dgm:prSet presAssocID="{22E58DCB-617F-40C7-92E7-07AAF4E017DC}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="9">
+      <dgm:prSet presAssocID="{22E58DCB-617F-40C7-92E7-07AAF4E017DC}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2008,11 +2167,11 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5894F468-113C-4596-96E0-7A245C60CC71}" type="pres">
-      <dgm:prSet presAssocID="{22E58DCB-617F-40C7-92E7-07AAF4E017DC}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="6" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{22E58DCB-617F-40C7-92E7-07AAF4E017DC}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="8" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{167CC06A-6DC2-4711-83F1-4D13263AE778}" type="pres">
-      <dgm:prSet presAssocID="{22E58DCB-617F-40C7-92E7-07AAF4E017DC}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{22E58DCB-617F-40C7-92E7-07AAF4E017DC}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="11"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7DFCA068-CC46-45F5-8702-0F7AB3387FBF}" type="pres">
@@ -2024,7 +2183,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B7D46651-A45B-4312-A0C7-9AF9299A9456}" type="pres">
-      <dgm:prSet presAssocID="{7AE980C2-9011-4745-B7FA-3A67C1907233}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{7AE980C2-9011-4745-B7FA-3A67C1907233}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="12"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A4CAB833-1EA1-48EA-B791-A3989E212267}" type="pres">
@@ -2040,7 +2199,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{221F5D3A-4548-421D-8D49-54F97C88E5E2}" type="pres">
-      <dgm:prSet presAssocID="{AF7D387C-7320-4A53-998F-16C6463EDDB8}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="9">
+      <dgm:prSet presAssocID="{AF7D387C-7320-4A53-998F-16C6463EDDB8}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2048,11 +2207,11 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F708CAB6-BDE2-4BDE-B474-191CF7C400A1}" type="pres">
-      <dgm:prSet presAssocID="{AF7D387C-7320-4A53-998F-16C6463EDDB8}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="7" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{AF7D387C-7320-4A53-998F-16C6463EDDB8}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="9" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E635E08F-D087-4400-BABC-E51F2EF9D5E4}" type="pres">
-      <dgm:prSet presAssocID="{AF7D387C-7320-4A53-998F-16C6463EDDB8}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{AF7D387C-7320-4A53-998F-16C6463EDDB8}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="11"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FECAF9C6-3AF2-4022-B381-BB80C4B6B5FF}" type="pres">
@@ -2064,7 +2223,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C897C009-1A95-400E-B394-D4BCFFE57187}" type="pres">
-      <dgm:prSet presAssocID="{92DE7CA5-6997-47C0-9542-B479B639D077}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{92DE7CA5-6997-47C0-9542-B479B639D077}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="12"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2D5A953E-60F3-4A18-AA37-264EE960D886}" type="pres">
@@ -2080,7 +2239,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{20A817A1-5D6A-4A0B-AD18-560068BA3AC0}" type="pres">
-      <dgm:prSet presAssocID="{A75A442A-DE5B-4EE4-AA30-7AB09E34B53D}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="9">
+      <dgm:prSet presAssocID="{A75A442A-DE5B-4EE4-AA30-7AB09E34B53D}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2088,11 +2247,11 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1DCC103D-8A56-4A48-B9C3-D0813121027E}" type="pres">
-      <dgm:prSet presAssocID="{A75A442A-DE5B-4EE4-AA30-7AB09E34B53D}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="8" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{A75A442A-DE5B-4EE4-AA30-7AB09E34B53D}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="10" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CBFB68B5-9BB0-4972-A638-D165A9ADFB89}" type="pres">
-      <dgm:prSet presAssocID="{A75A442A-DE5B-4EE4-AA30-7AB09E34B53D}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{A75A442A-DE5B-4EE4-AA30-7AB09E34B53D}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="11"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5A4FFDD9-07ED-49D4-A57A-9EE8557477A4}" type="pres">
@@ -2132,7 +2291,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3EA73B0B-18CB-41FA-80BE-5EAF4ED8AB0F}" type="pres">
-      <dgm:prSet presAssocID="{3A30CB07-01DB-438C-95C1-A8FA1B8B54A7}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="9" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{3A30CB07-01DB-438C-95C1-A8FA1B8B54A7}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="11" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{89C03B79-9677-481A-BA88-64F0BF608F9F}" type="pres">
@@ -2144,7 +2303,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C1833BFD-4417-4B64-AF16-23F4B8A20017}" type="pres">
-      <dgm:prSet presAssocID="{1399A00F-7BE4-42A8-89F6-B2607E371CFA}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{1399A00F-7BE4-42A8-89F6-B2607E371CFA}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="12"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A7900403-E5ED-406E-A123-A2B18A83BF9D}" type="pres">
@@ -2160,7 +2319,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{50A17A9D-3375-49A9-BB6B-DB82C7FA1A91}" type="pres">
-      <dgm:prSet presAssocID="{22ED3420-81FE-4B0D-B1AD-910739A1058D}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="9">
+      <dgm:prSet presAssocID="{22ED3420-81FE-4B0D-B1AD-910739A1058D}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2168,11 +2327,11 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2443DE34-1469-41B4-9F37-F4166F827FC8}" type="pres">
-      <dgm:prSet presAssocID="{22ED3420-81FE-4B0D-B1AD-910739A1058D}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="10" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{22ED3420-81FE-4B0D-B1AD-910739A1058D}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="12" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0D47676A-5232-4AE2-8150-4DCAC692A674}" type="pres">
-      <dgm:prSet presAssocID="{22ED3420-81FE-4B0D-B1AD-910739A1058D}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{22ED3420-81FE-4B0D-B1AD-910739A1058D}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="11"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BDC7745A-B607-4AE4-9D22-B5A2221B600E}" type="pres">
@@ -2184,7 +2343,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{05725F28-05FC-4BF4-B9EF-CF810FD1EB82}" type="pres">
-      <dgm:prSet presAssocID="{2CFF91A0-1E8D-4D33-8D56-3F5D67A0BE7A}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{2CFF91A0-1E8D-4D33-8D56-3F5D67A0BE7A}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="12"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5C800ADE-287F-40EB-ACA1-6B7839315112}" type="pres">
@@ -2200,7 +2359,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D6466D3D-3562-4EFD-B8D9-BCD848E2FECA}" type="pres">
-      <dgm:prSet presAssocID="{0F09A062-DCEC-4927-897E-8ADBC6E72DEA}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="9">
+      <dgm:prSet presAssocID="{0F09A062-DCEC-4927-897E-8ADBC6E72DEA}" presName="rootText" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2208,11 +2367,11 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0A1A5187-DCF3-43A3-A196-638A3272C467}" type="pres">
-      <dgm:prSet presAssocID="{0F09A062-DCEC-4927-897E-8ADBC6E72DEA}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="11" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{0F09A062-DCEC-4927-897E-8ADBC6E72DEA}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="13" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{084ADE22-783F-463F-8F7D-4C8389EF6CC7}" type="pres">
-      <dgm:prSet presAssocID="{0F09A062-DCEC-4927-897E-8ADBC6E72DEA}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{0F09A062-DCEC-4927-897E-8ADBC6E72DEA}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="11"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{799BDED3-FF9F-47C3-A302-F00CD98F2829}" type="pres">
@@ -2252,7 +2411,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{52D9E9E5-08D7-4DB5-9E72-B039AAB86190}" type="pres">
-      <dgm:prSet presAssocID="{E018313C-F5F9-4F35-976A-B5DF7FE33D8A}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="12" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{E018313C-F5F9-4F35-976A-B5DF7FE33D8A}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="14" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{840B47D6-A53A-4B9E-A414-31F306433AFD}" type="pres">
@@ -2264,7 +2423,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2850417B-1254-4BC5-A0B1-2C99C7E6FE43}" type="pres">
-      <dgm:prSet presAssocID="{9AE5AFD3-0AF6-48BB-B315-7659F200CBC7}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{9AE5AFD3-0AF6-48BB-B315-7659F200CBC7}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="12"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0AF7E2A4-D73E-487C-9E74-94853B21456D}" type="pres">
@@ -2280,7 +2439,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8CF7D23A-EC90-4A0A-BEDD-3288249F27FF}" type="pres">
-      <dgm:prSet presAssocID="{6BD471CE-11EC-4C30-A5A0-AD22A1C47B47}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="9">
+      <dgm:prSet presAssocID="{6BD471CE-11EC-4C30-A5A0-AD22A1C47B47}" presName="rootText" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2288,11 +2447,11 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0CA3A61F-10A7-4837-931C-E49ACAB28C9A}" type="pres">
-      <dgm:prSet presAssocID="{6BD471CE-11EC-4C30-A5A0-AD22A1C47B47}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="13" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{6BD471CE-11EC-4C30-A5A0-AD22A1C47B47}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="15" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{990D8370-30C2-46D9-AD80-0251E51AD93D}" type="pres">
-      <dgm:prSet presAssocID="{6BD471CE-11EC-4C30-A5A0-AD22A1C47B47}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{6BD471CE-11EC-4C30-A5A0-AD22A1C47B47}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="11"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4608E398-EF2D-443F-B74F-59E69C35AD8B}" type="pres">
@@ -2304,7 +2463,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4DC812A9-BA37-488E-863A-7912ECC2D55E}" type="pres">
-      <dgm:prSet presAssocID="{9F941CF7-09B3-491B-B849-50DA8ACB4917}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{9F941CF7-09B3-491B-B849-50DA8ACB4917}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="12"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FF6756EB-E56B-479B-8DAD-E85025A3B69E}" type="pres">
@@ -2320,7 +2479,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D6DD6DCE-09ED-48C6-AC5E-AA9A6A410F12}" type="pres">
-      <dgm:prSet presAssocID="{90C94172-B83C-4111-95EC-4C4A49616D9F}" presName="rootText" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="9">
+      <dgm:prSet presAssocID="{90C94172-B83C-4111-95EC-4C4A49616D9F}" presName="rootText" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2328,11 +2487,11 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{415D3D47-1A9E-474E-8E82-F28719A2F1E8}" type="pres">
-      <dgm:prSet presAssocID="{90C94172-B83C-4111-95EC-4C4A49616D9F}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="14" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{90C94172-B83C-4111-95EC-4C4A49616D9F}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="16" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8CBA2408-1059-4C16-9877-83E8AC379E6A}" type="pres">
-      <dgm:prSet presAssocID="{90C94172-B83C-4111-95EC-4C4A49616D9F}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{90C94172-B83C-4111-95EC-4C4A49616D9F}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="11"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{770BAF8F-9B6C-4977-AB11-047D48EB9B80}" type="pres">
@@ -2344,7 +2503,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{50B8B092-DC71-4025-901F-B624396733DA}" type="pres">
-      <dgm:prSet presAssocID="{78BD6760-659C-4646-B273-5BEC8175E80F}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{78BD6760-659C-4646-B273-5BEC8175E80F}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="12"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6F0F3F06-F417-4C53-9C65-3FB8D1A7BB51}" type="pres">
@@ -2360,7 +2519,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F7763F2A-BDC7-4988-BA4E-2E4A8C2C2248}" type="pres">
-      <dgm:prSet presAssocID="{B4CAEA86-F8D3-4597-9A6D-0A8203FB7333}" presName="rootText" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="9">
+      <dgm:prSet presAssocID="{B4CAEA86-F8D3-4597-9A6D-0A8203FB7333}" presName="rootText" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="11">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2368,11 +2527,11 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E4133815-CDC8-4122-87C3-D4E569A0F967}" type="pres">
-      <dgm:prSet presAssocID="{B4CAEA86-F8D3-4597-9A6D-0A8203FB7333}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="15" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{B4CAEA86-F8D3-4597-9A6D-0A8203FB7333}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="17" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B77975D7-4621-4742-8374-628BC66AB84B}" type="pres">
-      <dgm:prSet presAssocID="{B4CAEA86-F8D3-4597-9A6D-0A8203FB7333}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="9"/>
+      <dgm:prSet presAssocID="{B4CAEA86-F8D3-4597-9A6D-0A8203FB7333}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="11"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CA113B5F-EC0B-4BC7-8243-A53E9CA94124}" type="pres">
@@ -2416,7 +2575,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DA047C96-E843-4FC3-AC36-2074886FBB27}" type="pres">
-      <dgm:prSet presAssocID="{A01AD62F-C347-4D16-8AFB-587DC7750FCB}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="16" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{A01AD62F-C347-4D16-8AFB-587DC7750FCB}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="18" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2C4D2DD0-86A3-44B5-BC12-01B6BEE336D3}" type="pres">
@@ -2452,7 +2611,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FE73738A-FA5F-4100-A0F8-62FD31DC7EA4}" type="pres">
-      <dgm:prSet presAssocID="{60222B26-D353-46B6-8CE7-2F8D4F778E77}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="17" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{60222B26-D353-46B6-8CE7-2F8D4F778E77}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="19" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{055E0BC7-D461-48F4-B9CD-E70AB60D83E4}" type="pres">
@@ -2492,7 +2651,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6C65BC3A-2040-4CBF-A163-3F5EE6A3806C}" type="pres">
-      <dgm:prSet presAssocID="{F75B4D24-FD40-4291-8CE9-DD3EDCE54570}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="18" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{F75B4D24-FD40-4291-8CE9-DD3EDCE54570}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="20" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{906330D3-6EDE-4A9F-BFEF-67EF847EE619}" type="pres">
@@ -2532,7 +2691,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D9B64D20-8762-4330-876A-3ED60207E2A4}" type="pres">
-      <dgm:prSet presAssocID="{516188EB-65F1-46B7-AB09-31AFABF87A93}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="19" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{516188EB-65F1-46B7-AB09-31AFABF87A93}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="21" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E9F34BB8-F5C1-4EFE-BDEF-25EF943D87A5}" type="pres">
@@ -2572,7 +2731,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FFFCB1A5-69D8-432F-89D7-39438ADDED38}" type="pres">
-      <dgm:prSet presAssocID="{8AB5054E-DD85-44BE-B92A-DAB76F5BD346}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="20" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{8AB5054E-DD85-44BE-B92A-DAB76F5BD346}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="22" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{84612BE8-47B7-41E8-AA4C-AE27D8753835}" type="pres">
@@ -2616,7 +2775,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{17B0A0B6-5DF9-464E-A148-2B0DBC28A89A}" type="pres">
-      <dgm:prSet presAssocID="{504C0EBE-1E78-4755-B224-22259CED9BBF}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="21" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{504C0EBE-1E78-4755-B224-22259CED9BBF}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="23" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{89AAC86C-0A20-47CA-B944-93811FE850DD}" type="pres">
@@ -2652,7 +2811,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6750B5E3-E9D7-4701-ADB7-C0C37779C462}" type="pres">
-      <dgm:prSet presAssocID="{AD5CF57E-C09E-4E64-B745-7BA070CF371F}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="22" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{AD5CF57E-C09E-4E64-B745-7BA070CF371F}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="24" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3A848848-7DFB-48D6-A47C-FBC4E43C7E92}" type="pres">
@@ -2692,7 +2851,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C43823E3-6ADF-4AB8-B85E-25B03146FE68}" type="pres">
-      <dgm:prSet presAssocID="{FE5F679F-BC97-444A-8AA6-3822D364A183}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="23" presStyleCnt="24"/>
+      <dgm:prSet presAssocID="{FE5F679F-BC97-444A-8AA6-3822D364A183}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="25" presStyleCnt="26"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CCF60EBA-BBB1-47BC-94DB-E497D1E09AA1}" type="pres">
@@ -2717,11 +2876,13 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{42D85411-F848-40B9-88C2-1550E0E52532}" type="presOf" srcId="{085DAE47-561F-42D6-8AC3-2F3A943C6256}" destId="{D5C4C263-4053-4020-8DD7-35C5BAAC362F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{F6A6EB11-D357-4DAB-8489-B9A6C99952C0}" type="presOf" srcId="{308E1B8A-8B79-48C3-A4B8-A7C1A1D90698}" destId="{92E30D73-306A-48DE-AB63-EC56BBB55922}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{4FFC6412-C3A7-4CC0-B629-DD07397341FA}" type="presOf" srcId="{9AE5AFD3-0AF6-48BB-B315-7659F200CBC7}" destId="{2850417B-1254-4BC5-A0B1-2C99C7E6FE43}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{02F79316-91B2-447F-95F7-44EF9D19FA9F}" type="presOf" srcId="{7AE980C2-9011-4745-B7FA-3A67C1907233}" destId="{B7D46651-A45B-4312-A0C7-9AF9299A9456}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{64C76117-8CA4-4F8F-9D9A-187E0F552C5D}" type="presOf" srcId="{1399A00F-7BE4-42A8-89F6-B2607E371CFA}" destId="{C1833BFD-4417-4B64-AF16-23F4B8A20017}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{23E78B1A-48E6-4587-B4AA-540FE56F25D5}" type="presOf" srcId="{A3CEB53B-A4FC-4898-96D7-74831AD9E5DA}" destId="{C9E3E7D4-C2DB-4E7F-89E4-D692113006A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{070E1C1D-C2BB-4B76-8524-2A6128BB236C}" srcId="{7ABCB47E-A2AB-4EBD-B536-64C32B6D86D0}" destId="{BC40D038-378D-4E29-A428-66091D381985}" srcOrd="1" destOrd="0" parTransId="{53835426-5FD4-4806-99CD-8FDCD0003967}" sibTransId="{4074A65A-98B8-4126-B479-5BFCDBF66134}"/>
     <dgm:cxn modelId="{8FCA8C1F-B4DC-49F8-A750-8D4A8B5B03F7}" type="presOf" srcId="{FFA5B7DF-046D-43D3-A24C-16FC11125133}" destId="{B2BED9D0-04B8-4806-BC26-FAD9173E78B3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{35846B23-5AA2-46C6-A59D-98C9DE2A4B04}" srcId="{308E1B8A-8B79-48C3-A4B8-A7C1A1D90698}" destId="{EBE8BB09-F5F2-442C-9DC1-FAAD03537881}" srcOrd="0" destOrd="0" parTransId="{4C98382A-5EB9-4B54-92DA-58787BB61D03}" sibTransId="{8BAAB7F5-8FD3-4C5F-BEAA-FE26A9D4490F}"/>
     <dgm:cxn modelId="{772C7F24-A407-4F53-82E2-CB3437B9EF61}" type="presOf" srcId="{056E0BFD-D5F5-44ED-AF25-7899CA4F7AF8}" destId="{49DFB2DB-5991-4EB8-AF68-D6A71FE984EB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
@@ -2741,6 +2902,7 @@
     <dgm:cxn modelId="{2CEF1C5D-BAFE-423A-B906-AB2E76866448}" type="presOf" srcId="{647EE2FE-AA1A-4CFA-9B63-1AD54251D493}" destId="{337C8E0F-6FBE-4EB6-9751-217388D3E9DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{EA92715D-EACF-4C33-83A1-63C8CA003D90}" type="presOf" srcId="{A01AD62F-C347-4D16-8AFB-587DC7750FCB}" destId="{335A61E2-34CC-4E82-B671-1976461521D9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{E2BF775D-C919-41C1-86B3-86E8ACD31CE5}" type="presOf" srcId="{78BD6760-659C-4646-B273-5BEC8175E80F}" destId="{50B8B092-DC71-4025-901F-B624396733DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{5B3CFD5E-E028-4636-B60A-CA75010C6A91}" type="presOf" srcId="{BBD4F416-B3A1-49F4-9FF0-55ABA8CA4CBD}" destId="{106847BB-0E2C-4936-9B47-42EB2964F45A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{A73AB95F-8EB9-4851-B50D-542F4A0FCF9D}" type="presOf" srcId="{E018313C-F5F9-4F35-976A-B5DF7FE33D8A}" destId="{F6BF0717-1C4A-4722-AF4D-80793C64F1E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{F7137560-6323-43D7-A633-485F6A1BB1FA}" type="presOf" srcId="{A75A442A-DE5B-4EE4-AA30-7AB09E34B53D}" destId="{CBFB68B5-9BB0-4972-A638-D165A9ADFB89}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{A8374961-D750-4A12-97B0-34E8714CF9DE}" type="presOf" srcId="{308E1B8A-8B79-48C3-A4B8-A7C1A1D90698}" destId="{9D29E0C8-9742-4E66-9FB3-92F0B8FEA9E8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
@@ -2754,9 +2916,11 @@
     <dgm:cxn modelId="{4C8C9E54-3EED-48E7-BFAC-6CC1E2625C68}" type="presOf" srcId="{504C0EBE-1E78-4755-B224-22259CED9BBF}" destId="{89AAC86C-0A20-47CA-B944-93811FE850DD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{597CC374-AAE8-4CA8-B2F3-171D9BF61CBA}" srcId="{EBE8BB09-F5F2-442C-9DC1-FAAD03537881}" destId="{FFA5B7DF-046D-43D3-A24C-16FC11125133}" srcOrd="1" destOrd="0" parTransId="{6804B73B-E334-4504-B06E-CC07B4B687A7}" sibTransId="{9F0F92E7-FAA0-42AD-9093-E4D4779EAC8B}"/>
     <dgm:cxn modelId="{228F4055-DBE6-4E43-BE7C-0338FC2E40D5}" type="presOf" srcId="{3A30CB07-01DB-438C-95C1-A8FA1B8B54A7}" destId="{818A6DFC-6C55-41D3-9B06-E5297E3C7201}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{2DF66476-3B86-41D6-8DB2-0C54B4CEA937}" type="presOf" srcId="{085DAE47-561F-42D6-8AC3-2F3A943C6256}" destId="{77ED8531-9661-4CD2-87D4-6796FACB5EF7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{713CF776-37F3-4BFC-9F09-201A5CEF8057}" type="presOf" srcId="{6804B73B-E334-4504-B06E-CC07B4B687A7}" destId="{464EC1E0-1532-48DC-BDE0-17B4B7CEA28F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{11482D7D-59D6-4140-AE6E-CED20D0C4663}" type="presOf" srcId="{5C53C43F-3AD1-4558-B80D-0A64656CB0C2}" destId="{7424F358-FCE2-48B7-850C-1FB22C87EF4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{B4B83B7D-E366-4D10-8F3D-CA250D7EED8D}" type="presOf" srcId="{6DD53BFC-395D-4497-B63E-E96BD5065D55}" destId="{3A893064-D298-4E41-9D92-BADEAABC2931}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{A217517E-CB93-4857-8FF0-446C1461C133}" type="presOf" srcId="{BC40D038-378D-4E29-A428-66091D381985}" destId="{BC220E79-E6D4-4F30-AC4E-6B1A0BA5E2DD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{9D5B977E-960C-4C0C-8F78-495B81E79138}" type="presOf" srcId="{FE5F679F-BC97-444A-8AA6-3822D364A183}" destId="{CCF60EBA-BBB1-47BC-94DB-E497D1E09AA1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{7C12737F-8F70-4179-9480-7096B73AA52A}" type="presOf" srcId="{F75B4D24-FD40-4291-8CE9-DD3EDCE54570}" destId="{906330D3-6EDE-4A9F-BFEF-67EF847EE619}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{F69B6582-E9A5-42D2-A96F-AECB319FE985}" srcId="{3A30CB07-01DB-438C-95C1-A8FA1B8B54A7}" destId="{22ED3420-81FE-4B0D-B1AD-910739A1058D}" srcOrd="0" destOrd="0" parTransId="{1399A00F-7BE4-42A8-89F6-B2607E371CFA}" sibTransId="{21BD948D-8E8F-4A01-BF07-9CB570A0DB44}"/>
@@ -2786,6 +2950,7 @@
     <dgm:cxn modelId="{725022B4-82DF-4D9E-ADDC-2495EB6D75BE}" type="presOf" srcId="{A3CEB53B-A4FC-4898-96D7-74831AD9E5DA}" destId="{43446036-742E-4198-BD87-099C598C94BB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{51517DB4-3AD9-40BB-9799-6A641814394E}" srcId="{FFA5B7DF-046D-43D3-A24C-16FC11125133}" destId="{AF7D387C-7320-4A53-998F-16C6463EDDB8}" srcOrd="1" destOrd="0" parTransId="{7AE980C2-9011-4745-B7FA-3A67C1907233}" sibTransId="{DD8A688F-CB88-4B1A-8C1C-77DCF4B84FE8}"/>
     <dgm:cxn modelId="{07B7B2B8-AF75-4BBC-9FF2-05836525AF82}" type="presOf" srcId="{EBE8BB09-F5F2-442C-9DC1-FAAD03537881}" destId="{4ADE8521-8A56-439B-AA99-3161F818F65A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{12D6B7B9-490E-4B3B-B602-CCC8C65CEEBA}" srcId="{7ABCB47E-A2AB-4EBD-B536-64C32B6D86D0}" destId="{085DAE47-561F-42D6-8AC3-2F3A943C6256}" srcOrd="0" destOrd="0" parTransId="{BBD4F416-B3A1-49F4-9FF0-55ABA8CA4CBD}" sibTransId="{EB0DCC7A-E70B-4763-B85A-74F8E5B92FDD}"/>
     <dgm:cxn modelId="{8D47D8BC-DF04-4B8F-83A3-7835D26015A6}" type="presOf" srcId="{60222B26-D353-46B6-8CE7-2F8D4F778E77}" destId="{53DA041B-6C53-4F71-AE30-16BA9097E286}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{4BA57FBF-1482-4E2C-8846-30AD12AD1BC6}" srcId="{308E1B8A-8B79-48C3-A4B8-A7C1A1D90698}" destId="{504C0EBE-1E78-4755-B224-22259CED9BBF}" srcOrd="2" destOrd="0" parTransId="{9E0A7DC0-D526-4BE6-AB89-99592CEE24CB}" sibTransId="{9A61E684-E357-4B62-9C54-723328553E78}"/>
     <dgm:cxn modelId="{5A59D3C2-6549-471A-BAB5-BC81E24FF76A}" type="presOf" srcId="{E018313C-F5F9-4F35-976A-B5DF7FE33D8A}" destId="{840B47D6-A53A-4B9E-A414-31F306433AFD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
@@ -2793,6 +2958,7 @@
     <dgm:cxn modelId="{9ED0EACE-3B2B-4516-9E90-D5B06629780C}" srcId="{EBE8BB09-F5F2-442C-9DC1-FAAD03537881}" destId="{A3CEB53B-A4FC-4898-96D7-74831AD9E5DA}" srcOrd="0" destOrd="0" parTransId="{5755D760-A2A7-4373-8CBD-B6C618271A26}" sibTransId="{A3F33FEF-4807-41FD-A260-25F721C8A7A6}"/>
     <dgm:cxn modelId="{658FC8D0-45FC-4452-BEFD-1667BC693825}" type="presOf" srcId="{EC77294E-89F2-4DE9-ABC2-904F7CB46CCA}" destId="{BAE85721-4571-45D9-BB98-4AFEB3BCBB84}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{F7D5DED1-E548-4A12-BF5E-B04B1C4D49B6}" srcId="{EBE8BB09-F5F2-442C-9DC1-FAAD03537881}" destId="{3A30CB07-01DB-438C-95C1-A8FA1B8B54A7}" srcOrd="2" destOrd="0" parTransId="{647EE2FE-AA1A-4CFA-9B63-1AD54251D493}" sibTransId="{993DBC58-533A-4685-9000-B7FDB77FCC4F}"/>
+    <dgm:cxn modelId="{DF4E3AD4-0243-4F47-AC6E-622789CFD457}" type="presOf" srcId="{53835426-5FD4-4806-99CD-8FDCD0003967}" destId="{DF4CB239-437E-4B3B-9621-1E98BF921966}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{29C9E0D7-B419-4416-BADE-52BAB6C3B19B}" type="presOf" srcId="{60222B26-D353-46B6-8CE7-2F8D4F778E77}" destId="{055E0BC7-D461-48F4-B9CD-E70AB60D83E4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{E21CC2D8-71FD-42C9-BEFA-80E5521443F0}" type="presOf" srcId="{AF0AAEBB-A750-4A31-8212-C5A68B122541}" destId="{9A8B9DA2-DCFA-4506-81DB-777823B1D912}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{6AB261DD-89C6-480D-86A6-312B338726C9}" type="presOf" srcId="{90C94172-B83C-4111-95EC-4C4A49616D9F}" destId="{8CBA2408-1059-4C16-9877-83E8AC379E6A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
@@ -2811,6 +2977,7 @@
     <dgm:cxn modelId="{8BBD6AF3-05E6-426D-84CD-7D7AE68E3946}" type="presOf" srcId="{D168FB82-DCFA-497C-A74F-D8294E2E4A03}" destId="{9C6A7462-1118-49E4-B6E0-83CCD1D2518D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{97E6B1F3-B323-4D1C-A09E-9A8BBCD50DC2}" type="presOf" srcId="{130DCCB8-AB96-4F54-B113-6F3CA495D472}" destId="{71FCC63A-C695-406F-9D56-DCB7E1964F43}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{50F43EF4-C32E-4F39-9C9C-743F551A1C96}" type="presOf" srcId="{8A3C7B24-4536-46D0-83CB-414861650D59}" destId="{5F6C6221-DF1D-4438-A0C2-0B0955E3FBBB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{8F498CF4-785F-4452-BBC3-3958666448DD}" type="presOf" srcId="{BC40D038-378D-4E29-A428-66091D381985}" destId="{5852FB33-16EB-4774-B42D-9D474C15AD5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{E0307CF6-FD9E-4C57-A9C7-69B51DB29803}" srcId="{056E0BFD-D5F5-44ED-AF25-7899CA4F7AF8}" destId="{308E1B8A-8B79-48C3-A4B8-A7C1A1D90698}" srcOrd="0" destOrd="0" parTransId="{AA9C0F09-5F49-4051-B35C-6BFECDDCBAC6}" sibTransId="{F2CFB456-F99C-4B38-8ABC-C610B132425B}"/>
     <dgm:cxn modelId="{88E856FA-6D86-49E0-9591-E9420B36C8BB}" type="presOf" srcId="{22E58DCB-617F-40C7-92E7-07AAF4E017DC}" destId="{AAACD41E-428D-415B-A541-0FB8998215AE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{C4EDEBA8-A4A0-45E6-87A3-6B78618D872B}" type="presParOf" srcId="{49DFB2DB-5991-4EB8-AF68-D6A71FE984EB}" destId="{837F1449-8202-4596-AA03-0EE8FD394FA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
@@ -2849,6 +3016,22 @@
     <dgm:cxn modelId="{EE106E07-AE82-45AA-964B-EA63AD7995C5}" type="presParOf" srcId="{94416000-C5C5-40B3-AC0F-7CF8F1FB8C9D}" destId="{7A2DAAAD-45D8-40B9-BFCB-5F72E153B614}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{4853E197-3C00-4702-8DF9-EE755FE495B7}" type="presParOf" srcId="{94416000-C5C5-40B3-AC0F-7CF8F1FB8C9D}" destId="{381EB4B7-2FF0-4662-9CA2-F3208D833A80}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{4F9C7191-1346-4EAE-B04A-993924FD911B}" type="presParOf" srcId="{E2E4044D-B3D0-43A1-9FE8-0E8A8267E91B}" destId="{96E27BB6-36A4-43B9-9C99-2D8786795783}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{1F1E29D7-88C0-4420-ABF7-3EF4BE54FE3C}" type="presParOf" srcId="{96E27BB6-36A4-43B9-9C99-2D8786795783}" destId="{106847BB-0E2C-4936-9B47-42EB2964F45A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{C042ACA7-BC1A-46F1-A623-38AB8F07D210}" type="presParOf" srcId="{96E27BB6-36A4-43B9-9C99-2D8786795783}" destId="{2F330810-5CE6-4C47-BF92-96A8C71C23F2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{2ACA4DDE-CC0D-45BB-96B1-B5CAB94EB448}" type="presParOf" srcId="{2F330810-5CE6-4C47-BF92-96A8C71C23F2}" destId="{43134C7E-715F-4182-935D-7A359D8BDDE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{88A9F100-5A24-4057-AAB8-02309D0845B1}" type="presParOf" srcId="{43134C7E-715F-4182-935D-7A359D8BDDE5}" destId="{D5C4C263-4053-4020-8DD7-35C5BAAC362F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{6D91C7A1-B23C-434B-B4BF-B508D927DB53}" type="presParOf" srcId="{43134C7E-715F-4182-935D-7A359D8BDDE5}" destId="{0C3D5E5C-8CF3-411C-8844-FE79046EA764}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{9C483D5A-8FF4-4AF0-B517-5CE8BCEC4074}" type="presParOf" srcId="{43134C7E-715F-4182-935D-7A359D8BDDE5}" destId="{77ED8531-9661-4CD2-87D4-6796FACB5EF7}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{63CDE294-A857-46A4-A962-767CB98866E8}" type="presParOf" srcId="{2F330810-5CE6-4C47-BF92-96A8C71C23F2}" destId="{F344100D-5919-4872-A3CA-281A28DBBAE6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{D2401B37-45B3-42F7-9DF8-ED48B8D4A9D0}" type="presParOf" srcId="{2F330810-5CE6-4C47-BF92-96A8C71C23F2}" destId="{15D8303F-D8D6-449C-B7AF-DF4D1FB940FA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{26B1D560-9920-45CE-AAA6-3A44C74BFDF0}" type="presParOf" srcId="{96E27BB6-36A4-43B9-9C99-2D8786795783}" destId="{DF4CB239-437E-4B3B-9621-1E98BF921966}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{27BA6D30-B301-4BA9-8B7C-404A49CD0FD1}" type="presParOf" srcId="{96E27BB6-36A4-43B9-9C99-2D8786795783}" destId="{B1432384-D656-4454-A693-AC85CED86726}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{28E20D12-D319-4FD3-BB32-8998F01E7E45}" type="presParOf" srcId="{B1432384-D656-4454-A693-AC85CED86726}" destId="{D402C2C6-3EE4-4A89-9A01-B3C9C4F3E504}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{1C7EF917-7421-4756-B3C8-062326E039F1}" type="presParOf" srcId="{D402C2C6-3EE4-4A89-9A01-B3C9C4F3E504}" destId="{5852FB33-16EB-4774-B42D-9D474C15AD5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{647E62EB-04E1-4FC8-9A9E-FCF4490E4674}" type="presParOf" srcId="{D402C2C6-3EE4-4A89-9A01-B3C9C4F3E504}" destId="{7E5AEEF2-BE11-45D2-923F-C142CEE3E250}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{24F8ED24-B4F6-4E08-B551-8251E663377D}" type="presParOf" srcId="{D402C2C6-3EE4-4A89-9A01-B3C9C4F3E504}" destId="{BC220E79-E6D4-4F30-AC4E-6B1A0BA5E2DD}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{62516109-494E-43A0-8D02-AFF61DF899B7}" type="presParOf" srcId="{B1432384-D656-4454-A693-AC85CED86726}" destId="{357B4E89-2E7F-4DEF-95DE-C1CB0273BDDA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{23D96AAF-AF85-4A03-B6F8-6F8791FB2316}" type="presParOf" srcId="{B1432384-D656-4454-A693-AC85CED86726}" destId="{FF5017C2-3FCE-4F10-A821-77F9CAF318CD}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{61FDEF39-F88B-4C04-93A4-27AD92367AA4}" type="presParOf" srcId="{E2E4044D-B3D0-43A1-9FE8-0E8A8267E91B}" destId="{B2122AA0-7D2F-464A-BDF0-BA978A06B5A0}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{616D0FDB-2153-4B6E-B910-2CC1E3430DFD}" type="presParOf" srcId="{CDF3A740-730E-4715-BBC4-143F1131D2BA}" destId="{464EC1E0-1532-48DC-BDE0-17B4B7CEA28F}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{C165E15F-F31C-403D-808B-742F9EBEA926}" type="presParOf" srcId="{CDF3A740-730E-4715-BBC4-143F1131D2BA}" destId="{072F70D5-7E1B-465E-96E5-E29B67ED139E}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
@@ -3030,8 +3213,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11795618" y="1723968"/>
-          <a:ext cx="213300" cy="1663742"/>
+          <a:off x="11353788" y="1465729"/>
+          <a:ext cx="181688" cy="1417170"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3045,10 +3228,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1663742"/>
+                <a:pt x="0" y="1417170"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="213300" y="1663742"/>
+                <a:pt x="181688" y="1417170"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3091,8 +3274,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11795618" y="1723968"/>
-          <a:ext cx="213300" cy="654121"/>
+          <a:off x="11353788" y="1465729"/>
+          <a:ext cx="181688" cy="557177"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3106,10 +3289,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="654121"/>
+                <a:pt x="0" y="557177"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="213300" y="654121"/>
+                <a:pt x="181688" y="557177"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3152,8 +3335,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7194381" y="714346"/>
-          <a:ext cx="5170037" cy="298620"/>
+          <a:off x="7434471" y="605737"/>
+          <a:ext cx="4403819" cy="254363"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3167,13 +3350,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="149310"/>
+                <a:pt x="0" y="127181"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="5170037" y="149310"/>
+                <a:pt x="4403819" y="127181"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="5170037" y="298620"/>
+                <a:pt x="4403819" y="254363"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3216,8 +3399,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9144246" y="1723968"/>
-          <a:ext cx="368425" cy="3682986"/>
+          <a:off x="9095359" y="1465729"/>
+          <a:ext cx="313823" cy="3137154"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3231,10 +3414,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3682986"/>
+                <a:pt x="0" y="3137154"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="368425" y="3682986"/>
+                <a:pt x="313823" y="3137154"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3277,8 +3460,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9144246" y="1723968"/>
-          <a:ext cx="368425" cy="2673364"/>
+          <a:off x="9095359" y="1465729"/>
+          <a:ext cx="313823" cy="2277162"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3292,10 +3475,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2673364"/>
+                <a:pt x="0" y="2277162"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="368425" y="2673364"/>
+                <a:pt x="313823" y="2277162"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3338,8 +3521,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9144246" y="1723968"/>
-          <a:ext cx="368425" cy="1663742"/>
+          <a:off x="9095359" y="1465729"/>
+          <a:ext cx="313823" cy="1417170"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3353,10 +3536,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1663742"/>
+                <a:pt x="0" y="1417170"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="368425" y="1663742"/>
+                <a:pt x="313823" y="1417170"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3399,8 +3582,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9144246" y="1723968"/>
-          <a:ext cx="368425" cy="654121"/>
+          <a:off x="9095359" y="1465729"/>
+          <a:ext cx="313823" cy="557177"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3414,10 +3597,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="654121"/>
+                <a:pt x="0" y="557177"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="368425" y="654121"/>
+                <a:pt x="313823" y="557177"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3460,8 +3643,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7194381" y="714346"/>
-          <a:ext cx="2932332" cy="298620"/>
+          <a:off x="7434471" y="605737"/>
+          <a:ext cx="2497750" cy="254363"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3475,13 +3658,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="149310"/>
+                <a:pt x="0" y="127181"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2932332" y="149310"/>
+                <a:pt x="2497750" y="127181"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2932332" y="298620"/>
+                <a:pt x="2497750" y="254363"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3524,8 +3707,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7253209" y="2733589"/>
-          <a:ext cx="213300" cy="2673364"/>
+          <a:off x="7242329" y="2325722"/>
+          <a:ext cx="181688" cy="2277162"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3539,10 +3722,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2673364"/>
+                <a:pt x="0" y="2277162"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="213300" y="2673364"/>
+                <a:pt x="181688" y="2277162"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3585,8 +3768,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7253209" y="2733589"/>
-          <a:ext cx="213300" cy="1663742"/>
+          <a:off x="7242329" y="2325722"/>
+          <a:ext cx="181688" cy="1417170"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3600,10 +3783,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1663742"/>
+                <a:pt x="0" y="1417170"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="213300" y="1663742"/>
+                <a:pt x="181688" y="1417170"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3646,8 +3829,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7253209" y="2733589"/>
-          <a:ext cx="213300" cy="654121"/>
+          <a:off x="7242329" y="2325722"/>
+          <a:ext cx="181688" cy="557177"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3661,10 +3844,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="654121"/>
+                <a:pt x="0" y="557177"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="213300" y="654121"/>
+                <a:pt x="181688" y="557177"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3707,8 +3890,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4956676" y="1723968"/>
-          <a:ext cx="2865334" cy="298620"/>
+          <a:off x="5528402" y="1465729"/>
+          <a:ext cx="2198430" cy="254363"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3722,13 +3905,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="149310"/>
+                <a:pt x="0" y="127181"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2865334" y="149310"/>
+                <a:pt x="2198430" y="127181"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2865334" y="298620"/>
+                <a:pt x="2198430" y="254363"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3771,8 +3954,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5532586" y="2733589"/>
-          <a:ext cx="213300" cy="1663742"/>
+          <a:off x="5776709" y="2325722"/>
+          <a:ext cx="181688" cy="1417170"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3786,10 +3969,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1663742"/>
+                <a:pt x="0" y="1417170"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="213300" y="1663742"/>
+                <a:pt x="181688" y="1417170"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3832,8 +4015,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5532586" y="2733589"/>
-          <a:ext cx="213300" cy="654121"/>
+          <a:off x="5776709" y="2325722"/>
+          <a:ext cx="181688" cy="557177"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3847,10 +4030,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="654121"/>
+                <a:pt x="0" y="557177"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="213300" y="654121"/>
+                <a:pt x="181688" y="557177"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3893,8 +4076,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4956676" y="1723968"/>
-          <a:ext cx="1144711" cy="298620"/>
+          <a:off x="5528402" y="1465729"/>
+          <a:ext cx="732810" cy="254363"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3908,13 +4091,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="149310"/>
+                <a:pt x="0" y="127181"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1144711" y="149310"/>
+                <a:pt x="732810" y="127181"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1144711" y="298620"/>
+                <a:pt x="732810" y="254363"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3957,8 +4140,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3811964" y="2689685"/>
-          <a:ext cx="213300" cy="2673364"/>
+          <a:off x="4311089" y="2288324"/>
+          <a:ext cx="181688" cy="2277162"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3972,10 +4155,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2673364"/>
+                <a:pt x="0" y="2277162"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="213300" y="2673364"/>
+                <a:pt x="181688" y="2277162"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4018,8 +4201,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3811964" y="2689685"/>
-          <a:ext cx="213300" cy="1663742"/>
+          <a:off x="4311089" y="2288324"/>
+          <a:ext cx="181688" cy="1417170"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4033,10 +4216,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1663742"/>
+                <a:pt x="0" y="1417170"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="213300" y="1663742"/>
+                <a:pt x="181688" y="1417170"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4079,8 +4262,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3811964" y="2689685"/>
-          <a:ext cx="213300" cy="654121"/>
+          <a:off x="4311089" y="2288324"/>
+          <a:ext cx="181688" cy="557177"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4094,10 +4277,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="654121"/>
+                <a:pt x="0" y="557177"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="213300" y="654121"/>
+                <a:pt x="181688" y="557177"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4140,8 +4323,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4380765" y="1723968"/>
-          <a:ext cx="575910" cy="298620"/>
+          <a:off x="4795591" y="1465729"/>
+          <a:ext cx="732810" cy="254363"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4152,16 +4335,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="575910" y="0"/>
+                <a:pt x="732810" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="575910" y="149310"/>
+                <a:pt x="732810" y="127181"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="149310"/>
+                <a:pt x="0" y="127181"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="298620"/>
+                <a:pt x="0" y="254363"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4197,15 +4380,15 @@
         </a:fontRef>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{5F6C6221-DF1D-4438-A0C2-0B0955E3FBBB}">
+    <dsp:sp modelId="{DF4CB239-437E-4B3B-9621-1E98BF921966}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1942031" y="2733589"/>
-          <a:ext cx="149310" cy="654121"/>
+          <a:off x="1809844" y="3185714"/>
+          <a:ext cx="181688" cy="1417170"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4216,13 +4399,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="149310" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="149310" y="654121"/>
+                <a:pt x="0" y="1417170"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="654121"/>
+                <a:pt x="181688" y="1417170"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4258,15 +4441,15 @@
         </a:fontRef>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{3A893064-D298-4E41-9D92-BADEAABC2931}">
+    <dsp:sp modelId="{106847BB-0E2C-4936-9B47-42EB2964F45A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2091341" y="2733589"/>
-          <a:ext cx="213300" cy="1663742"/>
+          <a:off x="1809844" y="3185714"/>
+          <a:ext cx="181688" cy="557177"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4280,10 +4463,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1663742"/>
+                <a:pt x="0" y="557177"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="213300" y="1663742"/>
+                <a:pt x="181688" y="557177"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4319,15 +4502,15 @@
         </a:fontRef>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{5042107F-BF7F-4F55-A7CB-E6E3F29E4059}">
+    <dsp:sp modelId="{5F6C6221-DF1D-4438-A0C2-0B0955E3FBBB}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2091341" y="1723968"/>
-          <a:ext cx="2865334" cy="298620"/>
+          <a:off x="2415472" y="2325722"/>
+          <a:ext cx="914498" cy="557177"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4338,16 +4521,135 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2865334" y="0"/>
+                <a:pt x="914498" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2865334" y="149310"/>
+                <a:pt x="914498" y="557177"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="149310"/>
+                <a:pt x="0" y="557177"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d z="-25400" prstMaterial="plastic"/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{3A893064-D298-4E41-9D92-BADEAABC2931}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3284251" y="2325722"/>
+          <a:ext cx="91440" cy="2834340"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="2834340"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d z="-25400" prstMaterial="plastic"/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{5042107F-BF7F-4F55-A7CB-E6E3F29E4059}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3329971" y="1465729"/>
+          <a:ext cx="2198430" cy="254363"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="2198430" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2198430" y="127181"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="298620"/>
+                <a:pt x="0" y="127181"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="254363"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4390,8 +4692,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4956676" y="714346"/>
-          <a:ext cx="2237705" cy="298620"/>
+          <a:off x="5528402" y="605737"/>
+          <a:ext cx="1906069" cy="254363"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4402,16 +4704,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2237705" y="0"/>
+                <a:pt x="1906069" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2237705" y="149310"/>
+                <a:pt x="1906069" y="127181"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="149310"/>
+                <a:pt x="0" y="127181"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="298620"/>
+                <a:pt x="0" y="254363"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4454,8 +4756,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3881571" y="3345"/>
-          <a:ext cx="6625620" cy="711001"/>
+          <a:off x="4612631" y="109"/>
+          <a:ext cx="5643680" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4492,12 +4794,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4510,14 +4812,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>AL</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3881571" y="3345"/>
-        <a:ext cx="6625620" cy="711001"/>
+        <a:off x="4612631" y="109"/>
+        <a:ext cx="5643680" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DBA9F244-DFF8-4499-A2B9-CA01A5797987}">
@@ -4527,8 +4829,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6554480" y="74445"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="6889406" y="60672"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4571,8 +4873,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1313342" y="1012966"/>
-          <a:ext cx="7286667" cy="711001"/>
+          <a:off x="2425023" y="860101"/>
+          <a:ext cx="6206756" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4609,12 +4911,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4627,14 +4929,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" b="1" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" b="1" kern="1200"/>
             <a:t>MACHIN LEARNING</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1313342" y="1012966"/>
-        <a:ext cx="7286667" cy="711001"/>
+        <a:off x="2425023" y="860101"/>
+        <a:ext cx="6206756" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DF26ABD5-629C-4D6F-9C28-AB45EC9C2EBD}">
@@ -4644,8 +4946,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4316774" y="1084067"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="4983336" y="920664"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4653,9 +4955,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="85029"/>
-            <a:satOff val="4348"/>
-            <a:lumOff val="458"/>
+            <a:hueOff val="78227"/>
+            <a:satOff val="4000"/>
+            <a:lumOff val="421"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -4688,8 +4990,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1380340" y="2022588"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="2724343" y="1720093"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4726,12 +5028,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4744,14 +5046,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>SUPERVISED</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1380340" y="2022588"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="2724343" y="1720093"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2EBE1D0B-18F2-4AD4-86B3-FDBECA511AF8}">
@@ -4761,8 +5063,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1451440" y="2093688"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="2784906" y="1780656"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4770,9 +5072,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="170058"/>
-            <a:satOff val="8696"/>
-            <a:lumOff val="916"/>
+            <a:hueOff val="156454"/>
+            <a:satOff val="8000"/>
+            <a:lumOff val="843"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -4805,8 +5107,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2304641" y="4041831"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="2724343" y="5160062"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4843,12 +5145,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4861,14 +5163,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>CLASSIFICATION</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2304641" y="4041831"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="2724343" y="5160062"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ACCAA51B-11B8-42E1-BCC3-6B550E39D607}">
@@ -4878,8 +5180,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2375741" y="4112932"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="2784906" y="5220625"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4887,9 +5189,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="255087"/>
-            <a:satOff val="13043"/>
-            <a:lumOff val="1374"/>
+            <a:hueOff val="234680"/>
+            <a:satOff val="12000"/>
+            <a:lumOff val="1264"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -4922,8 +5224,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="520028" y="3032210"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="1204216" y="2580085"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4960,12 +5262,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4978,14 +5280,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>REGRESSION</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="520028" y="3032210"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="1204216" y="2580085"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7A2DAAAD-45D8-40B9-BFCB-5F72E153B614}">
@@ -4995,8 +5297,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="591128" y="3103310"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="1264779" y="2640648"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5004,9 +5306,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="340116"/>
-            <a:satOff val="17391"/>
-            <a:lumOff val="1832"/>
+            <a:hueOff val="312907"/>
+            <a:satOff val="16000"/>
+            <a:lumOff val="1685"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -5032,6 +5334,237 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
+    <dsp:sp modelId="{D5C4C263-4053-4020-8DD7-35C5BAAC362F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1991533" y="3440077"/>
+          <a:ext cx="1211256" cy="605628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="50800" h="50800"/>
+          <a:bevelB w="50800" h="50800"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
+            <a:t>Simple Linear</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1991533" y="3440077"/>
+        <a:ext cx="1211256" cy="605628"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0C3D5E5C-8CF3-411C-8844-FE79046EA764}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2052095" y="3500640"/>
+          <a:ext cx="363376" cy="484502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:tint val="50000"/>
+            <a:hueOff val="391134"/>
+            <a:satOff val="20000"/>
+            <a:lumOff val="2106"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="50800" h="50800"/>
+          <a:bevelB w="50800" h="50800"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{5852FB33-16EB-4774-B42D-9D474C15AD5C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1991533" y="4300070"/>
+          <a:ext cx="1211256" cy="605628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="50800" h="50800"/>
+          <a:bevelB w="50800" h="50800"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1991533" y="4300070"/>
+        <a:ext cx="1211256" cy="605628"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7E5AEEF2-BE11-45D2-923F-C142CEE3E250}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2052095" y="4360632"/>
+          <a:ext cx="363376" cy="484502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:tint val="50000"/>
+            <a:hueOff val="469361"/>
+            <a:satOff val="24000"/>
+            <a:lumOff val="2528"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="50800" h="50800"/>
+          <a:bevelB w="50800" h="50800"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
     <dsp:sp modelId="{31E9A735-4798-4B39-A5C0-562CF755569E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
@@ -5039,8 +5572,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3669763" y="2022588"/>
-          <a:ext cx="1422002" cy="667096"/>
+          <a:off x="4189963" y="1720093"/>
+          <a:ext cx="1211256" cy="568230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5077,12 +5610,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5095,14 +5628,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>UNSUPERVISED</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3669763" y="2022588"/>
-        <a:ext cx="1422002" cy="667096"/>
+        <a:off x="4189963" y="1720093"/>
+        <a:ext cx="1211256" cy="568230"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B5E0C2FF-CB36-4E94-B6A1-D77C2F926C50}">
@@ -5112,8 +5645,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3740864" y="2071736"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="4250526" y="1761957"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5121,9 +5654,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="425145"/>
-            <a:satOff val="21739"/>
-            <a:lumOff val="2290"/>
+            <a:hueOff val="547587"/>
+            <a:satOff val="28000"/>
+            <a:lumOff val="2949"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -5156,8 +5689,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4025264" y="2988305"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="4492777" y="2542688"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5194,12 +5727,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5212,14 +5745,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>CLUSTERING</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4025264" y="2988305"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="4492777" y="2542688"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5894F468-113C-4596-96E0-7A245C60CC71}">
@@ -5229,8 +5762,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4096364" y="3059406"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="4553340" y="2603251"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5238,9 +5771,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="510175"/>
-            <a:satOff val="26087"/>
-            <a:lumOff val="2747"/>
+            <a:hueOff val="625814"/>
+            <a:satOff val="32000"/>
+            <a:lumOff val="3370"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -5273,8 +5806,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4025264" y="3997927"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="4492777" y="3402680"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5311,12 +5844,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5329,14 +5862,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>DIMENSIONALITY</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4025264" y="3997927"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="4492777" y="3402680"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F708CAB6-BDE2-4BDE-B474-191CF7C400A1}">
@@ -5346,8 +5879,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4096364" y="4069027"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="4553340" y="3463243"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5355,9 +5888,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="595204"/>
-            <a:satOff val="30435"/>
-            <a:lumOff val="3205"/>
+            <a:hueOff val="704041"/>
+            <a:satOff val="36000"/>
+            <a:lumOff val="3792"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -5390,8 +5923,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4025264" y="5007549"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="4492777" y="4262672"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5428,12 +5961,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5446,14 +5979,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>ANOMALY DETECTION</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4025264" y="5007549"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="4492777" y="4262672"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1DCC103D-8A56-4A48-B9C3-D0813121027E}">
@@ -5463,8 +5996,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4096364" y="5078649"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="4553340" y="4323235"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5472,9 +6005,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="680233"/>
-            <a:satOff val="34783"/>
-            <a:lumOff val="3663"/>
+            <a:hueOff val="782268"/>
+            <a:satOff val="40000"/>
+            <a:lumOff val="4213"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -5507,8 +6040,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5390386" y="2022588"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="5655583" y="1720093"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5545,12 +6078,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5563,14 +6096,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>SEMI-SUPERVISED</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5390386" y="2022588"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="5655583" y="1720093"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3EA73B0B-18CB-41FA-80BE-5EAF4ED8AB0F}">
@@ -5580,8 +6113,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5461486" y="2093688"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="5716146" y="1780656"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5589,9 +6122,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="765262"/>
-            <a:satOff val="39130"/>
-            <a:lumOff val="4121"/>
+            <a:hueOff val="860494"/>
+            <a:satOff val="44000"/>
+            <a:lumOff val="4634"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -5624,8 +6157,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5745887" y="3032210"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="5958398" y="2580085"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5662,12 +6195,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5680,14 +6213,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>SELF-TRAINING</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5745887" y="3032210"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="5958398" y="2580085"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2443DE34-1469-41B4-9F37-F4166F827FC8}">
@@ -5697,8 +6230,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5816987" y="3103310"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="6018960" y="2640648"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5706,9 +6239,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="850291"/>
-            <a:satOff val="43478"/>
-            <a:lumOff val="4579"/>
+            <a:hueOff val="938721"/>
+            <a:satOff val="48000"/>
+            <a:lumOff val="5055"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -5741,8 +6274,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5745887" y="4041831"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="5958398" y="3440077"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5779,12 +6312,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5797,14 +6330,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>CO-TRAINIG</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5745887" y="4041831"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="5958398" y="3440077"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0A1A5187-DCF3-43A3-A196-638A3272C467}">
@@ -5814,8 +6347,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5816987" y="4112932"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="6018960" y="3500640"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5823,9 +6356,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="935320"/>
-            <a:satOff val="47826"/>
-            <a:lumOff val="5037"/>
+            <a:hueOff val="1016948"/>
+            <a:satOff val="52000"/>
+            <a:lumOff val="5477"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -5858,8 +6391,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7111009" y="2022588"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="7121204" y="1720093"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5896,12 +6429,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5914,14 +6447,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>REINFORCEMENT</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7111009" y="2022588"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="7121204" y="1720093"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{52D9E9E5-08D7-4DB5-9E72-B039AAB86190}">
@@ -5931,8 +6464,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7182109" y="2093688"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="7181767" y="1780656"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5940,9 +6473,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="1020349"/>
-            <a:satOff val="52174"/>
-            <a:lumOff val="5495"/>
+            <a:hueOff val="1095175"/>
+            <a:satOff val="56000"/>
+            <a:lumOff val="5898"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -5975,8 +6508,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7466510" y="3032210"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="7424018" y="2580085"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6008,12 +6541,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6026,14 +6559,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>Q-LEARNING</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7466510" y="3032210"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="7424018" y="2580085"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0CA3A61F-10A7-4837-931C-E49ACAB28C9A}">
@@ -6043,8 +6576,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7537610" y="3103310"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="7484581" y="2640648"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6052,9 +6585,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="1105378"/>
-            <a:satOff val="56522"/>
-            <a:lumOff val="5953"/>
+            <a:hueOff val="1173401"/>
+            <a:satOff val="60000"/>
+            <a:lumOff val="6319"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -6087,8 +6620,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7466510" y="4041831"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="7424018" y="3440077"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6120,12 +6653,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6138,14 +6671,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>DEEP- Q-NETWORKS</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7466510" y="4041831"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="7424018" y="3440077"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{415D3D47-1A9E-474E-8E82-F28719A2F1E8}">
@@ -6155,8 +6688,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7537610" y="4112932"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="7484581" y="3500640"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6164,9 +6697,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="1190407"/>
-            <a:satOff val="60870"/>
-            <a:lumOff val="6411"/>
+            <a:hueOff val="1251628"/>
+            <a:satOff val="64000"/>
+            <a:lumOff val="6740"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -6199,8 +6732,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7466510" y="5051453"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="7424018" y="4300070"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6232,12 +6765,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6250,14 +6783,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>POLICY GRADIENTS</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7466510" y="5051453"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="7424018" y="4300070"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E4133815-CDC8-4122-87C3-D4E569A0F967}">
@@ -6267,8 +6800,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7537610" y="5122553"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="7484581" y="4360632"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6276,9 +6809,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="1275436"/>
-            <a:satOff val="65217"/>
-            <a:lumOff val="6869"/>
+            <a:hueOff val="1329855"/>
+            <a:satOff val="68000"/>
+            <a:lumOff val="7162"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -6311,8 +6844,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8898630" y="1012966"/>
-          <a:ext cx="2456167" cy="711001"/>
+          <a:off x="8886144" y="860101"/>
+          <a:ext cx="2092154" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6349,12 +6882,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6367,14 +6900,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>DEEP</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8898630" y="1012966"/>
-        <a:ext cx="2456167" cy="711001"/>
+        <a:off x="8886144" y="860101"/>
+        <a:ext cx="2092154" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DA047C96-E843-4FC3-AC36-2074886FBB27}">
@@ -6384,8 +6917,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9486812" y="1084067"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="9387156" y="920664"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6393,9 +6926,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="1360465"/>
-            <a:satOff val="69565"/>
-            <a:lumOff val="7327"/>
+            <a:hueOff val="1408082"/>
+            <a:satOff val="72000"/>
+            <a:lumOff val="7583"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -6428,8 +6961,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9512672" y="2022588"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="9409183" y="1720093"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6466,12 +6999,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6484,14 +7017,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>FEEDFORWARD NEURAL NETWORKS</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9512672" y="2022588"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="9409183" y="1720093"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FE73738A-FA5F-4100-A0F8-62FD31DC7EA4}">
@@ -6501,8 +7034,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9583772" y="2093688"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="9469745" y="1780656"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6510,9 +7043,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="1445494"/>
-            <a:satOff val="73913"/>
-            <a:lumOff val="7785"/>
+            <a:hueOff val="1486308"/>
+            <a:satOff val="76000"/>
+            <a:lumOff val="8004"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -6545,8 +7078,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9512672" y="3032210"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="9409183" y="2580085"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6583,12 +7116,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6601,14 +7134,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>CONVOLUTIONAL NEURAL NETWORKS</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9512672" y="3032210"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="9409183" y="2580085"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6C65BC3A-2040-4CBF-A163-3F5EE6A3806C}">
@@ -6618,8 +7151,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9583772" y="3103310"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="9469745" y="2640648"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6627,9 +7160,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="1530523"/>
-            <a:satOff val="78261"/>
-            <a:lumOff val="8242"/>
+            <a:hueOff val="1564535"/>
+            <a:satOff val="80000"/>
+            <a:lumOff val="8426"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -6662,8 +7195,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9512672" y="4041831"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="9409183" y="3440077"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6700,12 +7233,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6718,14 +7251,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>RECURRENT NEURAL NETWORKS</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9512672" y="4041831"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="9409183" y="3440077"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D9B64D20-8762-4330-876A-3ED60207E2A4}">
@@ -6735,8 +7268,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9583772" y="4112932"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="9469745" y="3500640"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6744,9 +7277,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="1615553"/>
-            <a:satOff val="82609"/>
-            <a:lumOff val="8700"/>
+            <a:hueOff val="1642762"/>
+            <a:satOff val="84000"/>
+            <a:lumOff val="8847"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -6779,8 +7312,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9512672" y="5051453"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="9409183" y="4300070"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6817,12 +7350,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6835,14 +7368,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>TRANSFORMS</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9512672" y="5051453"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="9409183" y="4300070"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FFFCB1A5-69D8-432F-89D7-39438ADDED38}">
@@ -6852,8 +7385,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9583772" y="5122553"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="9469745" y="4360632"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6861,9 +7394,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="1700582"/>
-            <a:satOff val="86957"/>
-            <a:lumOff val="9158"/>
+            <a:hueOff val="1720989"/>
+            <a:satOff val="88000"/>
+            <a:lumOff val="9268"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -6896,8 +7429,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11653418" y="1012966"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="11232663" y="860101"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6934,12 +7467,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6952,14 +7485,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>TRANSFER</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11653418" y="1012966"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="11232663" y="860101"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{17B0A0B6-5DF9-464E-A148-2B0DBC28A89A}">
@@ -6969,8 +7502,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11724518" y="1084067"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="11293225" y="920664"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6978,9 +7511,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="1785611"/>
-            <a:satOff val="91304"/>
-            <a:lumOff val="9616"/>
+            <a:hueOff val="1799216"/>
+            <a:satOff val="92000"/>
+            <a:lumOff val="9689"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -7013,8 +7546,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12008918" y="2022588"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="11535477" y="1720093"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7051,12 +7584,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7069,14 +7602,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>FINR-TUNING</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12008918" y="2022588"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="11535477" y="1720093"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6750B5E3-E9D7-4701-ADB7-C0C37779C462}">
@@ -7086,8 +7619,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12080019" y="2093688"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="11596040" y="1780656"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7095,9 +7628,9 @@
         <a:solidFill>
           <a:schemeClr val="accent3">
             <a:tint val="50000"/>
-            <a:hueOff val="1870640"/>
-            <a:satOff val="95652"/>
-            <a:lumOff val="10074"/>
+            <a:hueOff val="1877442"/>
+            <a:satOff val="96000"/>
+            <a:lumOff val="10111"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -7130,8 +7663,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12008918" y="3032210"/>
-          <a:ext cx="1422002" cy="711001"/>
+          <a:off x="11535477" y="2580085"/>
+          <a:ext cx="1211256" cy="605628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7168,12 +7701,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="526733" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="448670" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -7186,14 +7719,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:rPr lang="en-US" sz="800" kern="1200"/>
             <a:t>FEATRE EXTRACTION</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12008918" y="3032210"/>
-        <a:ext cx="1422002" cy="711001"/>
+        <a:off x="11535477" y="2580085"/>
+        <a:ext cx="1211256" cy="605628"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C43823E3-6ADF-4AB8-B85E-25B03146FE68}">
@@ -7203,8 +7736,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12080019" y="3103310"/>
-          <a:ext cx="426600" cy="568800"/>
+          <a:off x="11596040" y="2640648"/>
+          <a:ext cx="363376" cy="484502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9926,7 +10459,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
